--- a/Gantt example.xlsx
+++ b/Gantt example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Excel\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9BE242-3494-4A78-8D5B-CD2A079073C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBA9B2-E87E-46F9-92F8-1F83FCB97FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{089861B9-B4DE-442C-ABA2-25BE5012542E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Gant" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gant!$A$5:$H$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gant!$A$5:$H$30</definedName>
     <definedName name="Inicio.Proy">Gant!$E$1</definedName>
     <definedName name="Show.Sem">Gant!$G$1</definedName>
   </definedNames>
@@ -51,18 +51,12 @@
     <t>By</t>
   </si>
   <si>
-    <t>Ejemplo diagrama de Gantt</t>
-  </si>
-  <si>
     <t>Semana inicio</t>
   </si>
   <si>
     <t>Inicio Proyecto</t>
   </si>
   <si>
-    <t>Diagramador de Cuotas</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>Final Quota</t>
+  </si>
+  <si>
+    <t>Credit  Card Diagram</t>
+  </si>
+  <si>
+    <t>Gantt chart  example</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>30816</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="G1" s="14"/>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1050,34 +1050,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1085,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1105,16 +1105,16 @@
         <v>44228</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -1143,16 +1143,16 @@
         <v>44317</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -1161,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -1181,16 +1181,16 @@
         <v>44531</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1199,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1219,14 +1219,14 @@
         <v>44501</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -1235,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -1255,10 +1255,10 @@
         <v>43221</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -1269,10 +1269,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1289,10 +1289,10 @@
         <v>43221</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -1303,10 +1303,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1323,10 +1323,10 @@
         <v>44470</v>
       </c>
       <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -1337,10 +1337,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1357,10 +1357,10 @@
         <v>44501</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -1371,10 +1371,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -1391,10 +1391,10 @@
         <v>44317</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1422,10 +1422,10 @@
         <v>44287</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1453,10 +1453,10 @@
         <v>44287</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1464,10 +1464,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -1484,10 +1484,10 @@
         <v>44044</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1495,10 +1495,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>44378</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1526,10 +1526,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -1546,10 +1546,10 @@
         <v>44197</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1557,10 +1557,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -1577,10 +1577,10 @@
         <v>44197</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1588,10 +1588,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -1608,10 +1608,10 @@
         <v>44197</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -1640,10 +1640,10 @@
         <v>44197</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1651,10 +1651,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1671,10 +1671,10 @@
         <v>44501</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1682,10 +1682,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1704,10 +1704,10 @@
         <v>44531</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1715,10 +1715,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>44562</v>
       </c>
       <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
         <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1748,10 +1748,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1770,10 +1770,10 @@
         <v>44562</v>
       </c>
       <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
         <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1781,10 +1781,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1803,10 +1803,10 @@
         <v>44562</v>
       </c>
       <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1814,10 +1814,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1836,10 +1836,10 @@
         <v>44652</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1848,10 +1848,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1871,10 +1871,10 @@
         <v>44593</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1898,14 +1898,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA905BAC-186B-4373-8811-CC7467987496}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V23" sqref="V22:V23"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1916,7 @@
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="14" style="17" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
@@ -1932,21 +1931,21 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E1" s="28">
         <f>+MIN(F6:G11)-30</f>
         <v>43191</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="16">
         <v>40</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="25">
         <f>+J2/(SUM(J6:J32))</f>
@@ -1966,11 +1965,11 @@
       </c>
       <c r="N1" s="25">
         <f t="shared" si="0"/>
-        <v>0.94839091006382692</v>
+        <v>1</v>
       </c>
       <c r="O1" s="25">
-        <f t="shared" si="0"/>
-        <v>0.95718579045959706</v>
+        <f>+O2/(SUM(O6:O32))</f>
+        <v>1</v>
       </c>
       <c r="P1" s="25">
         <f t="shared" si="0"/>
@@ -2023,14 +2022,14 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="H2" s="15">
         <f>+SUM(H6:H24)</f>
         <v>44377.79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="27">
         <f>+SUBTOTAL(109,J6:J30)</f>
@@ -2050,11 +2049,11 @@
       </c>
       <c r="N2" s="27">
         <f t="shared" si="1"/>
-        <v>34915.22</v>
+        <v>36815.22</v>
       </c>
       <c r="O2" s="27">
-        <f t="shared" si="1"/>
-        <v>42477.79</v>
+        <f>+SUBTOTAL(109,O6:O30)</f>
+        <v>44377.79</v>
       </c>
       <c r="P2" s="27">
         <f t="shared" si="1"/>
@@ -2107,12 +2106,12 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="26">
         <f>+(K2-J2)</f>
@@ -2123,20 +2122,20 @@
         <v>0</v>
       </c>
       <c r="M3" s="26">
-        <f t="shared" si="2"/>
+        <f>+(M2-L2)</f>
         <v>1000</v>
       </c>
       <c r="N3" s="26">
         <f t="shared" si="2"/>
-        <v>2845</v>
+        <v>4745</v>
       </c>
       <c r="O3" s="26">
-        <f t="shared" si="2"/>
+        <f>+(O2-N2)</f>
         <v>7562.57</v>
       </c>
       <c r="P3" s="26">
         <f>+(P2-O2)</f>
-        <v>12345</v>
+        <v>10445</v>
       </c>
       <c r="Q3" s="26">
         <f>+(Q2-P2)</f>
@@ -2225,28 +2224,28 @@
     </row>
     <row r="5" spans="1:27" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="4">
@@ -2356,11 +2355,11 @@
         <v>5381</v>
       </c>
       <c r="J6" s="22">
-        <f t="shared" ref="J6:Y20" si="4">+IF(AND(J$5&gt;=$F6,J$5&lt;=$G6),$H6,0)</f>
+        <f>+IF(AND(J$5&gt;=$F6,J$5&lt;=$G6),$H6,0)</f>
         <v>5381</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J6:Y20" si="4">+IF(AND(K$5&gt;=$F6,K$5&lt;=$G6),$H6,0)</f>
         <v>5381</v>
       </c>
       <c r="L6" s="22">
@@ -2640,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="9" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="str">
         <f>+Source!B6</f>
         <v>Gift for Marion</v>
@@ -5013,13 +5012,7 @@
       <c r="AA32" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:H28" xr:uid="{57485AD4-DCA0-4A49-B2E6-CA1828450A3E}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Overlod"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:H30" xr:uid="{57485AD4-DCA0-4A49-B2E6-CA1828450A3E}"/>
   <mergeCells count="6">
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="J4:L4"/>
@@ -5091,7 +5084,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
@@ -5330,18 +5323,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5364,18 +5357,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{756F4CCD-C281-4639-89D7-DFB183DA98DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA71427-7BB9-45D7-89B3-5E90840B1966}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{756F4CCD-C281-4639-89D7-DFB183DA98DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>